--- a/KrampusBOMreleased.xlsx
+++ b/KrampusBOMreleased.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alpenglow\Documents\KiCad\Krampus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlpenglowShop\Documents\Kicad\Krampus_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C46C29-4C77-4832-995B-307234E1698A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B540B5-44A9-49F8-A94D-3340A15F0605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>Id</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Package</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>Designation</t>
   </si>
   <si>
@@ -185,18 +182,9 @@
     <t>Alpenglow Ind</t>
   </si>
   <si>
-    <t>B07WTF5DPD</t>
-  </si>
-  <si>
-    <t>Amazon</t>
-  </si>
-  <si>
     <t>magnet, 10mm x 3mm rare earth</t>
   </si>
   <si>
-    <t>B07842PSJD</t>
-  </si>
-  <si>
     <t>H20-5304FD</t>
   </si>
   <si>
@@ -209,12 +197,6 @@
     <t>chain, 3mm x 5mm twisted oval links, brass</t>
   </si>
   <si>
-    <t>B01IRXOCGE</t>
-  </si>
-  <si>
-    <t>B0885RKVMC</t>
-  </si>
-  <si>
     <t>All kits:</t>
   </si>
   <si>
@@ -231,6 +213,12 @@
   </si>
   <si>
     <t>RMCF1206FT100K</t>
+  </si>
+  <si>
+    <t>Qty kit</t>
+  </si>
+  <si>
+    <t>Qty PCB</t>
   </si>
 </sst>
 </file>
@@ -1081,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1092,14 +1080,15 @@
     <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1110,345 +1099,372 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>27</v>
+      <c r="E3">
+        <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
         <v>9</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
       </c>
       <c r="G4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
       <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="H5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
         <v>6</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>220</v>
       </c>
-      <c r="F6" t="s">
-        <v>62</v>
-      </c>
       <c r="G6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="H6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
-        <v>17</v>
+      <c r="E7">
+        <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
         <v>19</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
       </c>
       <c r="G8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
         <v>22</v>
       </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" t="s">
         <v>43</v>
       </c>
-      <c r="G9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D13">
         <v>4</v>
       </c>
-      <c r="F13" t="s">
-        <v>37</v>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="H13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="F14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="F15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="F16" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" t="s">
-        <v>48</v>
-      </c>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="F17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="F20" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
-      <c r="F21" t="s">
-        <v>47</v>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="K22" s="1"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="H25" s="1"/>
-      <c r="I25" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="L22" s="1"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="I25" s="1"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="M25" s="2"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="H26" s="1"/>
-      <c r="I26" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="I26" s="1"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="M26" s="2"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="H27" s="1"/>
-      <c r="I27" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="I27" s="1"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="M27" s="2"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="H29" s="1"/>
+      <c r="L27" s="2"/>
+      <c r="N27" s="2"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="I29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
